--- a/public/Examples Sheets/Questions Sample.xlsx
+++ b/public/Examples Sheets/Questions Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\laragon\www\dok-assessment\public\Examples Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA0052-8226-454A-B7CB-9B6E86489B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C397DC-1F14-464E-B136-E7E6C5A42991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Question Title</t>
   </si>
@@ -105,9 +105,6 @@
       </rPr>
       <t xml:space="preserve"> to set the correct options</t>
     </r>
-  </si>
-  <si>
-    <t>Mark</t>
   </si>
 </sst>
 </file>
@@ -486,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,11 +495,9 @@
     <col min="2" max="2" width="89" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -521,13 +516,8 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -546,66 +536,6 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
